--- a/Attach/FactoryClient/FactoryClient/bin/Debug/規模化報表.xlsx
+++ b/Attach/FactoryClient/FactoryClient/bin/Debug/規模化報表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>總表</t>
   </si>
@@ -29,6 +29,148 @@
   </si>
   <si>
     <t>蒜泥白肉 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>總表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯食部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔥抓餅+蛋+熱狗(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎餃(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨蝦仁炒飯(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯肉飯+二副菜(40$.)</t>
+  </si>
+  <si>
+    <t>香雞堡飯+二副菜(40$.)</t>
+  </si>
+  <si>
+    <t>焗烤咖哩飯+卡拉雞(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤咖哩麵+卡拉雞(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨蝦仁炒飯+雞排(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡椒丼飯+三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>牛肉燴飯(55$.)</t>
+  </si>
+  <si>
+    <t>韓式拌飯(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原味小火鍋(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤部</t>
+  </si>
+  <si>
+    <t>卡拉雞+雞塊+三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>起司豬排+香腸+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜泥白肉+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰糖焢肉+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉飯+三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>煎雞腿排+三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>浦燒魚飯+薯餅+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜汁雞腿+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無骨雞排+三副菜(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦排+柳葉魚+三副菜(55$.)</t>
+  </si>
+  <si>
+    <t>總表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵食部</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵+蛋+青菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南擔仔乾麵+蛋+小菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾粄條+蛋+小菜(40$.)</t>
+  </si>
+  <si>
+    <t>清燉牛肉湯麵(40$.)</t>
+  </si>
+  <si>
+    <t>酸辣湯麵+蛋(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣湯麵+豬血+豆腐(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄湯麵+蛋+小菜(40$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣湯張君雅+豬血+臭豆腐+肉片(55$.)</t>
+  </si>
+  <si>
+    <t>清燉牛肉麵(55$.)</t>
+  </si>
+  <si>
+    <t>沙茶羊肉羹麵(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄湯麵+蛋+小菜+豬排(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉乾麵(55$.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,10 +608,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <v>113</v>
@@ -480,10 +622,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -494,10 +636,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -508,10 +650,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -521,17 +663,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>107</v>
@@ -542,10 +688,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -556,10 +702,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -570,10 +716,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -583,14 +729,20 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>119</v>
@@ -601,9 +753,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,10 +767,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -638,17 +792,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>114</v>
@@ -659,10 +817,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -673,10 +831,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -687,10 +845,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -699,12 +857,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>108</v>
@@ -715,10 +881,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -729,10 +895,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -743,13 +909,21 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,10 +942,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -779,10 +953,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -793,10 +967,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -805,12 +979,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>205</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>120</v>
@@ -821,10 +1003,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -835,10 +1017,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -849,7 +1031,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -858,12 +1043,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
       </c>
       <c r="D36">
         <v>117</v>
@@ -874,10 +1067,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -888,10 +1081,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -902,10 +1095,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
